--- a/models/tests/sharpe_analysis.xlsx
+++ b/models/tests/sharpe_analysis.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="sharpe_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -873,7 +873,7 @@
   <dimension ref="A1:I477"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F1" sqref="F1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
